--- a/springboot/src/main/resources/jxlsTemplate/3.xlsx
+++ b/springboot/src/main/resources/jxlsTemplate/3.xlsx
@@ -4,22 +4,35 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15940"/>
+    <workbookView windowHeight="16020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" calcCompleted="0" calcOnSave="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
+    <author>mac</author>
     <author>86152</author>
   </authors>
   <commentList>
-    <comment ref="C6" authorId="0">
+    <comment ref="A1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="0"/>
+          </rPr>
+          <t>jx:area( lastCell="D11")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C6" authorId="1">
       <text>
         <r>
           <rPr>
@@ -49,6 +62,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>$</t>
     </r>
     <r>
@@ -73,6 +91,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>${</t>
     </r>
     <r>
@@ -114,7 +137,7 @@
     <t>审批意见</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;jx:forEach items="${data}" var="first"&gt; </t>
+    <t xml:space="preserve">&lt;jx:forEach items="${data} lastCell="D11" var="ApprovalBO"&gt; </t>
   </si>
   <si>
     <t>${ApprovalBO.name}</t>
@@ -142,7 +165,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,7 +177,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="SimHei"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -346,6 +368,11 @@
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="0"/>
     </font>
   </fonts>
   <fills count="34">
@@ -1438,7 +1465,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.56730769230769" defaultRowHeight="16.8" outlineLevelCol="7"/>
@@ -1595,8 +1622,6 @@
         <v>18</v>
       </c>
       <c r="B11" s="12"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
       <c r="E11" s="18"/>
       <c r="F11" s="18"/>
       <c r="G11" s="18"/>
